--- a/ProducaoExportacao.xlsx
+++ b/ProducaoExportacao.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/alexandre/Library/Mobile Documents/com~apple~CloudDocs/PosTechFiap/FIAP/FASE 1 - DATA ANALYSIS AND EXPLORATION/4 - Tech Challenge/Exportacao/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C6C8E3FE-49A2-0440-822F-9C396EBAEDC7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DA4D4C77-754A-6147-A4CE-5DFCE09FDE5F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="16920" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3" uniqueCount="3">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4" uniqueCount="4">
   <si>
     <t>Ano</t>
   </si>
@@ -43,12 +43,15 @@
   <si>
     <t>Produzido</t>
   </si>
+  <si>
+    <t>PTAX</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="18" x14ac:knownFonts="1">
+  <fonts count="19" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -182,6 +185,12 @@
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FF000000"/>
+      <name val="Helvetica Neue"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="33">
@@ -525,10 +534,11 @@
     <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="4" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="4" fontId="18" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
   </cellXfs>
   <cellStyles count="42">
     <cellStyle name="20% - Accent1" xfId="19" builtinId="30" customBuiltin="1"/>
@@ -884,10 +894,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:C16"/>
+  <dimension ref="A1:D16"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B2" sqref="B2:B16"/>
+      <selection activeCell="E16" sqref="E16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -897,7 +907,7 @@
     <col min="3" max="3" width="12.6640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -907,8 +917,11 @@
       <c r="C1" s="1" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D1" s="1" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A2">
         <v>2008</v>
       </c>
@@ -918,8 +931,11 @@
       <c r="C2" s="2">
         <v>10346323</v>
       </c>
-    </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D2" s="3">
+        <v>2.3370000000000002</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A3">
         <v>2009</v>
       </c>
@@ -929,8 +945,11 @@
       <c r="C3" s="2">
         <v>25514198</v>
       </c>
-    </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D3" s="3">
+        <v>1.7412000000000001</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A4">
         <v>2010</v>
       </c>
@@ -940,8 +959,11 @@
       <c r="C4" s="2">
         <v>1280574</v>
       </c>
-    </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D4" s="3">
+        <v>1.6661999999999999</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A5">
         <v>2011</v>
       </c>
@@ -951,8 +973,11 @@
       <c r="C5" s="2">
         <v>1214834</v>
       </c>
-    </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D5" s="3">
+        <v>1.8757999999999999</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A6">
         <v>2012</v>
       </c>
@@ -962,8 +987,11 @@
       <c r="C6" s="2">
         <v>5775376</v>
       </c>
-    </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D6" s="3">
+        <v>2.0434999999999999</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A7">
         <v>2013</v>
       </c>
@@ -973,8 +1001,11 @@
       <c r="C7" s="2">
         <v>9149059</v>
       </c>
-    </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D7" s="3">
+        <v>2.3426</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A8">
         <v>2014</v>
       </c>
@@ -984,8 +1015,11 @@
       <c r="C8" s="2">
         <v>2324029</v>
       </c>
-    </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D8" s="3">
+        <v>2.6562000000000001</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A9">
         <v>2015</v>
       </c>
@@ -995,8 +1029,11 @@
       <c r="C9" s="2">
         <v>1198479</v>
       </c>
-    </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D9" s="3">
+        <v>3.9047999999999998</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A10">
         <v>2016</v>
       </c>
@@ -1006,8 +1043,11 @@
       <c r="C10" s="2">
         <v>1786549</v>
       </c>
-    </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D10" s="3">
+        <v>3.2591000000000001</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A11">
         <v>2017</v>
       </c>
@@ -1017,8 +1057,11 @@
       <c r="C11" s="2">
         <v>2889572</v>
       </c>
-    </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D11" s="3">
+        <v>3.3079999999999998</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A12">
         <v>2018</v>
       </c>
@@ -1028,8 +1071,11 @@
       <c r="C12" s="2">
         <v>3856162</v>
       </c>
-    </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D12" s="3">
+        <v>3.8748</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A13">
         <v>2019</v>
       </c>
@@ -1039,8 +1085,11 @@
       <c r="C13" s="2">
         <v>3152873</v>
       </c>
-    </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D13" s="3">
+        <v>4.0307000000000004</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A14">
         <v>2020</v>
       </c>
@@ -1050,8 +1099,11 @@
       <c r="C14" s="2">
         <v>4409717</v>
       </c>
-    </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D14" s="3">
+        <v>5.1966999999999999</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A15">
         <v>2021</v>
       </c>
@@ -1061,8 +1113,11 @@
       <c r="C15" s="2">
         <v>8058704</v>
       </c>
-    </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D15" s="3">
+        <v>5.5804999999999998</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A16">
         <v>2022</v>
       </c>
@@ -1071,6 +1126,9 @@
       </c>
       <c r="C16" s="2">
         <v>7025983</v>
+      </c>
+      <c r="D16" s="3">
+        <v>5.2176999999999998</v>
       </c>
     </row>
   </sheetData>
